--- a/Land cover codes.xlsx
+++ b/Land cover codes.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="17235" windowHeight="8250"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="17235" windowHeight="8250" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="LCM or SPS" sheetId="1" r:id="rId1"/>
+    <sheet name="CORINE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="130">
   <si>
     <t>Broad leaf woodland</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Littoral sediment</t>
   </si>
   <si>
-    <t>LCM 2007 / SPS</t>
-  </si>
-  <si>
     <t>Grid code</t>
   </si>
   <si>
@@ -265,13 +262,157 @@
   </si>
   <si>
     <t>Fallow (Bare soil)</t>
+  </si>
+  <si>
+    <t>Land cover</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Grassland/pasture</t>
+  </si>
+  <si>
+    <t>CONTINIOUS URBAN FABRIC</t>
+  </si>
+  <si>
+    <t>DISCONTINUOUS URBAN FABRIC</t>
+  </si>
+  <si>
+    <t>INDUSTRIAL OR COMMERCIAL UNTS</t>
+  </si>
+  <si>
+    <t>ROAD AND RAIL NETWORKS AND ASSOCIATED L</t>
+  </si>
+  <si>
+    <t>PORT AREAS</t>
+  </si>
+  <si>
+    <t>AIRPORTS</t>
+  </si>
+  <si>
+    <t>MINERAL EXTRACTION SITES</t>
+  </si>
+  <si>
+    <t>DUMP SITES</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION SITES</t>
+  </si>
+  <si>
+    <t>GREEN URBAN AREAS</t>
+  </si>
+  <si>
+    <t>SPORT AND LEISURE FACILITIES</t>
+  </si>
+  <si>
+    <t>NON-IRRIGATED ARABLE LAND</t>
+  </si>
+  <si>
+    <t>PERMANENTLY IRRIGATED LAND</t>
+  </si>
+  <si>
+    <t>RICE FIELDS</t>
+  </si>
+  <si>
+    <t>VINEYARDS</t>
+  </si>
+  <si>
+    <t>FRUIT TREES AND BERRY PLANTATIONS</t>
+  </si>
+  <si>
+    <t>OLIVE GROWES</t>
+  </si>
+  <si>
+    <t>PASTURES</t>
+  </si>
+  <si>
+    <t>ANNUAL CROPS ASSOCIATED WITH PERMANENT</t>
+  </si>
+  <si>
+    <t>COMPLEX CULTIVATION PATTERNS</t>
+  </si>
+  <si>
+    <t>AGRICULTURE, WITH SIGNIFICANT AREAS OF</t>
+  </si>
+  <si>
+    <t>AGRO-FORESTRY AREAS</t>
+  </si>
+  <si>
+    <t>BROAD-LEAVED FOREST</t>
+  </si>
+  <si>
+    <t>CONIFEROUS FOREST</t>
+  </si>
+  <si>
+    <t>MIXED FOREST</t>
+  </si>
+  <si>
+    <t>NATURAL GRASSLAND</t>
+  </si>
+  <si>
+    <t>MOORS AND HEATHLAND</t>
+  </si>
+  <si>
+    <t>SCLEROPHYLLOUS VEGETATION</t>
+  </si>
+  <si>
+    <t>TRANSITIONAZL WOODLAND-SHRUB</t>
+  </si>
+  <si>
+    <t>BEACHES, DUNES, AND SAND PLAINS</t>
+  </si>
+  <si>
+    <t>BARE ROCK</t>
+  </si>
+  <si>
+    <t>SPARSELY VEGETATED AREAS</t>
+  </si>
+  <si>
+    <t>BURNT AREAS</t>
+  </si>
+  <si>
+    <t>GLACIERS AND PERPETUAL SNOW</t>
+  </si>
+  <si>
+    <t>INLAND MARSHES</t>
+  </si>
+  <si>
+    <t>PEATBOGS</t>
+  </si>
+  <si>
+    <t>SALT-MARSHES</t>
+  </si>
+  <si>
+    <t>SALINES</t>
+  </si>
+  <si>
+    <t>INTERTIDAL FLATS</t>
+  </si>
+  <si>
+    <t>WATER COURSES</t>
+  </si>
+  <si>
+    <t>WATER BODIES</t>
+  </si>
+  <si>
+    <t>COASTAL LAGOONS</t>
+  </si>
+  <si>
+    <t>ESTUARIES</t>
+  </si>
+  <si>
+    <t>SEA AND OCEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional codes </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +445,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,17 +482,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,31 +800,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49:D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="65.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="88.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="40.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="1">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9">
         <v>50</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>67</v>
+      <c r="D2" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="1">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9">
         <v>51</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="9">
         <v>52</v>
       </c>
-      <c r="C6" s="1">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>67</v>
+      <c r="D6" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -722,81 +887,78 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="1">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9">
         <v>2</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9">
         <v>53</v>
       </c>
-      <c r="C8" s="1">
-        <v>53</v>
-      </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="6"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="9">
+        <v>73</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="1">
-        <v>73</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1">
+        <v>50</v>
+      </c>
+      <c r="C12" s="9">
         <v>74</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="1">
+        <v>52</v>
+      </c>
+      <c r="C13" s="9">
         <v>75</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="1">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -804,32 +966,34 @@
         <v>2</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
+        <v>51</v>
+      </c>
+      <c r="C16" s="9">
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="9">
         <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="1">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>66</v>
+      <c r="A20" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -839,667 +1003,601 @@
       <c r="B21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="1">
-        <v>55</v>
-      </c>
-      <c r="D21" s="3"/>
+      <c r="C21" s="9">
+        <v>4</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="9">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="9">
         <v>56</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
-        <v>5</v>
-      </c>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
         <v>5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
         <v>6</v>
-      </c>
-      <c r="C27" s="1">
-        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C28" s="9">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="1">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C29" s="9">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="C31" s="9">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="C35" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C41" s="9">
         <v>20</v>
       </c>
-      <c r="C36" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="9">
         <v>22</v>
       </c>
-      <c r="C37" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="9">
         <v>23</v>
       </c>
-      <c r="C38" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C43" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C45" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="1">
-        <v>58</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C49" s="1">
-        <v>59</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>64</v>
+      <c r="C49" s="9">
+        <v>58</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="9">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="9">
+        <v>60</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" s="1">
-        <v>60</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="1">
-        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="1">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="C54" s="9">
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="1">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C55" s="9">
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1">
+        <v>60</v>
+      </c>
+      <c r="C56" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="C60" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="1">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="C61" s="9">
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-    </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>72</v>
-      </c>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="1">
+        <v>65</v>
+      </c>
+      <c r="C64" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="1">
-        <v>65</v>
-      </c>
-      <c r="C63" s="1">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="B65" s="1">
+        <v>38</v>
+      </c>
+      <c r="C65" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="1">
-        <v>38</v>
-      </c>
-      <c r="C64" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="B66" s="1">
+        <v>30</v>
+      </c>
+      <c r="C66" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="1">
-        <v>30</v>
-      </c>
-      <c r="C65" s="1">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="B67" s="1">
+        <v>25</v>
+      </c>
+      <c r="C67" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B66" s="1">
-        <v>25</v>
-      </c>
-      <c r="C66" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="B68" s="1">
+        <v>20</v>
+      </c>
+      <c r="C68" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B67" s="1">
-        <v>20</v>
-      </c>
-      <c r="C67" s="1">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="1">
+      <c r="B69" s="1">
         <v>12</v>
       </c>
-      <c r="C68" s="1">
+      <c r="C69" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>50</v>
+      <c r="A71" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="1">
+        <v>24</v>
+      </c>
+      <c r="C72" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C73" s="1">
+        <v>25</v>
+      </c>
+      <c r="C73" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1">
+        <v>26</v>
+      </c>
+      <c r="C74" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C75" s="1">
+        <v>27</v>
+      </c>
+      <c r="C75" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="1">
+        <v>28</v>
+      </c>
+      <c r="C76" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C77" s="1">
+        <v>29</v>
+      </c>
+      <c r="C77" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C78" s="1">
+        <v>30</v>
+      </c>
+      <c r="C78" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C79" s="1">
+        <v>31</v>
+      </c>
+      <c r="C79" s="9">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="1">
+        <v>32</v>
+      </c>
+      <c r="C80" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="1">
+        <v>33</v>
+      </c>
+      <c r="C81" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C82" s="1">
+        <v>34</v>
+      </c>
+      <c r="C82" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="1">
+        <v>35</v>
+      </c>
+      <c r="C83" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C84" s="1">
+        <v>36</v>
+      </c>
+      <c r="C84" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="1">
+        <v>37</v>
+      </c>
+      <c r="C85" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" s="1">
+        <v>38</v>
+      </c>
+      <c r="C86" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="1">
+        <v>39</v>
+      </c>
+      <c r="C87" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C88" s="1">
+        <v>40</v>
+      </c>
+      <c r="C88" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="1">
+        <v>41</v>
+      </c>
+      <c r="C89" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C90" s="1">
+        <v>42</v>
+      </c>
+      <c r="C90" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C91" s="1">
+        <v>43</v>
+      </c>
+      <c r="C91" s="9">
         <v>43</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="1">
+        <v>44</v>
+      </c>
+      <c r="C92" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C93" s="1">
+        <v>45</v>
+      </c>
+      <c r="C93" s="9">
         <v>45</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="1">
+        <v>46</v>
+      </c>
+      <c r="C94" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="1">
+        <v>46</v>
+      </c>
+      <c r="C95" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C96" s="1">
+        <v>47</v>
+      </c>
+      <c r="C96" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="9">
         <v>49</v>
-      </c>
-      <c r="C97" s="1">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C98" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C99" s="1">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C100" s="1">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C101" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C102" s="1">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C103" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C104" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C105" s="1">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C106" s="1">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C107" s="1">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C108" s="1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C109" s="1">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C110" s="1">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C111" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C112" s="1">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113" s="1">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="D21:D23"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="D6:D8"/>
     <mergeCell ref="D11:D13"/>
@@ -1511,12 +1609,842 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="9">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C32" s="9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" s="9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="9">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="9">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="9">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="9">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="9">
+        <v>50</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="9">
+        <v>45</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="9">
+        <v>51</v>
+      </c>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="9">
+        <v>52</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="9">
+        <v>46</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="9">
+        <v>53</v>
+      </c>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="9">
+        <v>73</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C58" s="9">
+        <v>74</v>
+      </c>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C59" s="9">
+        <v>75</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="9"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="9"/>
+    </row>
+    <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="9"/>
+    </row>
+    <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="9">
+        <v>48</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68" s="9">
+        <v>55</v>
+      </c>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="9">
+        <v>56</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="9">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" s="1"/>
+      <c r="C72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="9">
+        <v>58</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="9">
+        <v>59</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="9">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="9"/>
+    </row>
+    <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="9"/>
+    </row>
+    <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="9">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="9">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="9"/>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="9"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="9">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="9">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="9"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C87" s="9"/>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B88" s="1">
+        <v>65</v>
+      </c>
+      <c r="C88" s="9">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B89" s="1">
+        <v>38</v>
+      </c>
+      <c r="C89" s="9">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+      <c r="C90" s="9">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B91" s="1">
+        <v>25</v>
+      </c>
+      <c r="C91" s="9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B92" s="1">
+        <v>20</v>
+      </c>
+      <c r="C92" s="9">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B93" s="1">
+        <v>12</v>
+      </c>
+      <c r="C93" s="9">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D93">
+    <sortCondition ref="C2"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="D52:D54"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D67:D69"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
